--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lif-Il6st.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lif-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.27224850914059</v>
+        <v>0.5355756666666667</v>
       </c>
       <c r="H2">
-        <v>2.27224850914059</v>
+        <v>1.606727</v>
       </c>
       <c r="I2">
-        <v>0.8930529982527337</v>
+        <v>0.168705706571243</v>
       </c>
       <c r="J2">
-        <v>0.8930529982527337</v>
+        <v>0.168705706571243</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.4754615933908</v>
+        <v>39.96608766666667</v>
       </c>
       <c r="N2">
-        <v>17.4754615933908</v>
+        <v>119.898263</v>
       </c>
       <c r="O2">
-        <v>0.136645058822307</v>
+        <v>0.2616165719423124</v>
       </c>
       <c r="P2">
-        <v>0.136645058822307</v>
+        <v>0.2616165719423124</v>
       </c>
       <c r="Q2">
-        <v>39.70859155212589</v>
+        <v>21.40486404613345</v>
       </c>
       <c r="R2">
-        <v>39.70859155212589</v>
+        <v>192.643776415201</v>
       </c>
       <c r="S2">
-        <v>0.1220312794776825</v>
+        <v>0.04413620862027424</v>
       </c>
       <c r="T2">
-        <v>0.1220312794776825</v>
+        <v>0.04413620862027425</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.27224850914059</v>
+        <v>0.5355756666666667</v>
       </c>
       <c r="H3">
-        <v>2.27224850914059</v>
+        <v>1.606727</v>
       </c>
       <c r="I3">
-        <v>0.8930529982527337</v>
+        <v>0.168705706571243</v>
       </c>
       <c r="J3">
-        <v>0.8930529982527337</v>
+        <v>0.168705706571243</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.23356023253579</v>
+        <v>85.11961100000001</v>
       </c>
       <c r="N3">
-        <v>84.23356023253579</v>
+        <v>255.358833</v>
       </c>
       <c r="O3">
-        <v>0.6586435346085682</v>
+        <v>0.5571899111219771</v>
       </c>
       <c r="P3">
-        <v>0.6586435346085682</v>
+        <v>0.557189911121977</v>
       </c>
       <c r="Q3">
-        <v>191.3995816579835</v>
+        <v>45.58799240773234</v>
       </c>
       <c r="R3">
-        <v>191.3995816579835</v>
+        <v>410.291931669591</v>
       </c>
       <c r="S3">
-        <v>0.58820358336196</v>
+        <v>0.09400111765020125</v>
       </c>
       <c r="T3">
-        <v>0.58820358336196</v>
+        <v>0.09400111765020124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.27224850914059</v>
+        <v>0.5355756666666667</v>
       </c>
       <c r="H4">
-        <v>2.27224850914059</v>
+        <v>1.606727</v>
       </c>
       <c r="I4">
-        <v>0.8930529982527337</v>
+        <v>0.168705706571243</v>
       </c>
       <c r="J4">
-        <v>0.8930529982527337</v>
+        <v>0.168705706571243</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.1804294576054</v>
+        <v>27.68018833333333</v>
       </c>
       <c r="N4">
-        <v>26.1804294576054</v>
+        <v>83.040565</v>
       </c>
       <c r="O4">
-        <v>0.2047114065691248</v>
+        <v>0.1811935169357105</v>
       </c>
       <c r="P4">
-        <v>0.2047114065691248</v>
+        <v>0.1811935169357105</v>
       </c>
       <c r="Q4">
-        <v>59.48844180370426</v>
+        <v>14.82483532008389</v>
       </c>
       <c r="R4">
-        <v>59.48844180370426</v>
+        <v>133.423517880755</v>
       </c>
       <c r="S4">
-        <v>0.1828181354130913</v>
+        <v>0.03056838030076752</v>
       </c>
       <c r="T4">
-        <v>0.1828181354130913</v>
+        <v>0.03056838030076752</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.272111695221598</v>
+        <v>2.335066666666667</v>
       </c>
       <c r="H5">
-        <v>0.272111695221598</v>
+        <v>7.0052</v>
       </c>
       <c r="I5">
-        <v>0.1069470017472664</v>
+        <v>0.7355432601013561</v>
       </c>
       <c r="J5">
-        <v>0.1069470017472664</v>
+        <v>0.7355432601013562</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.4754615933908</v>
+        <v>39.96608766666667</v>
       </c>
       <c r="N5">
-        <v>17.4754615933908</v>
+        <v>119.898263</v>
       </c>
       <c r="O5">
-        <v>0.136645058822307</v>
+        <v>0.2616165719423124</v>
       </c>
       <c r="P5">
-        <v>0.136645058822307</v>
+        <v>0.2616165719423124</v>
       </c>
       <c r="Q5">
-        <v>4.755277478957499</v>
+        <v>93.32347910751112</v>
       </c>
       <c r="R5">
-        <v>4.755277478957499</v>
+        <v>839.9113119676001</v>
       </c>
       <c r="S5">
-        <v>0.01461377934462459</v>
+        <v>0.1924303062229894</v>
       </c>
       <c r="T5">
-        <v>0.01461377934462459</v>
+        <v>0.1924303062229895</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.272111695221598</v>
+        <v>2.335066666666667</v>
       </c>
       <c r="H6">
-        <v>0.272111695221598</v>
+        <v>7.0052</v>
       </c>
       <c r="I6">
-        <v>0.1069470017472664</v>
+        <v>0.7355432601013561</v>
       </c>
       <c r="J6">
-        <v>0.1069470017472664</v>
+        <v>0.7355432601013562</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.23356023253579</v>
+        <v>85.11961100000001</v>
       </c>
       <c r="N6">
-        <v>84.23356023253579</v>
+        <v>255.358833</v>
       </c>
       <c r="O6">
-        <v>0.6586435346085682</v>
+        <v>0.5571899111219771</v>
       </c>
       <c r="P6">
-        <v>0.6586435346085682</v>
+        <v>0.557189911121977</v>
       </c>
       <c r="Q6">
-        <v>22.9209368694259</v>
+        <v>198.7599663257333</v>
       </c>
       <c r="R6">
-        <v>22.9209368694259</v>
+        <v>1788.8396969316</v>
       </c>
       <c r="S6">
-        <v>0.07043995124660826</v>
+        <v>0.4098372837222439</v>
       </c>
       <c r="T6">
-        <v>0.07043995124660826</v>
+        <v>0.4098372837222439</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.335066666666667</v>
+      </c>
+      <c r="H7">
+        <v>7.0052</v>
+      </c>
+      <c r="I7">
+        <v>0.7355432601013561</v>
+      </c>
+      <c r="J7">
+        <v>0.7355432601013562</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>27.68018833333333</v>
+      </c>
+      <c r="N7">
+        <v>83.040565</v>
+      </c>
+      <c r="O7">
+        <v>0.1811935169357105</v>
+      </c>
+      <c r="P7">
+        <v>0.1811935169357105</v>
+      </c>
+      <c r="Q7">
+        <v>64.63508510422223</v>
+      </c>
+      <c r="R7">
+        <v>581.715765938</v>
+      </c>
+      <c r="S7">
+        <v>0.1332756701561227</v>
+      </c>
+      <c r="T7">
+        <v>0.1332756701561228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3039726666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.911918</v>
+      </c>
+      <c r="I8">
+        <v>0.09575103332740086</v>
+      </c>
+      <c r="J8">
+        <v>0.09575103332740086</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>39.96608766666667</v>
+      </c>
+      <c r="N8">
+        <v>119.898263</v>
+      </c>
+      <c r="O8">
+        <v>0.2616165719423124</v>
+      </c>
+      <c r="P8">
+        <v>0.2616165719423124</v>
+      </c>
+      <c r="Q8">
+        <v>12.14859824427045</v>
+      </c>
+      <c r="R8">
+        <v>109.337384198434</v>
+      </c>
+      <c r="S8">
+        <v>0.02505005709904872</v>
+      </c>
+      <c r="T8">
+        <v>0.02505005709904872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.272111695221598</v>
-      </c>
-      <c r="H7">
-        <v>0.272111695221598</v>
-      </c>
-      <c r="I7">
-        <v>0.1069470017472664</v>
-      </c>
-      <c r="J7">
-        <v>0.1069470017472664</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>26.1804294576054</v>
-      </c>
-      <c r="N7">
-        <v>26.1804294576054</v>
-      </c>
-      <c r="O7">
-        <v>0.2047114065691248</v>
-      </c>
-      <c r="P7">
-        <v>0.2047114065691248</v>
-      </c>
-      <c r="Q7">
-        <v>7.124001041338467</v>
-      </c>
-      <c r="R7">
-        <v>7.124001041338467</v>
-      </c>
-      <c r="S7">
-        <v>0.02189327115603355</v>
-      </c>
-      <c r="T7">
-        <v>0.02189327115603355</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3039726666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.911918</v>
+      </c>
+      <c r="I9">
+        <v>0.09575103332740086</v>
+      </c>
+      <c r="J9">
+        <v>0.09575103332740086</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>85.11961100000001</v>
+      </c>
+      <c r="N9">
+        <v>255.358833</v>
+      </c>
+      <c r="O9">
+        <v>0.5571899111219771</v>
+      </c>
+      <c r="P9">
+        <v>0.557189911121977</v>
+      </c>
+      <c r="Q9">
+        <v>25.87403514129933</v>
+      </c>
+      <c r="R9">
+        <v>232.866316271694</v>
+      </c>
+      <c r="S9">
+        <v>0.05335150974953196</v>
+      </c>
+      <c r="T9">
+        <v>0.05335150974953194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3039726666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.911918</v>
+      </c>
+      <c r="I10">
+        <v>0.09575103332740086</v>
+      </c>
+      <c r="J10">
+        <v>0.09575103332740086</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>27.68018833333333</v>
+      </c>
+      <c r="N10">
+        <v>83.040565</v>
+      </c>
+      <c r="O10">
+        <v>0.1811935169357105</v>
+      </c>
+      <c r="P10">
+        <v>0.1811935169357105</v>
+      </c>
+      <c r="Q10">
+        <v>8.414020661518888</v>
+      </c>
+      <c r="R10">
+        <v>75.72618595367</v>
+      </c>
+      <c r="S10">
+        <v>0.01734946647882018</v>
+      </c>
+      <c r="T10">
+        <v>0.01734946647882018</v>
       </c>
     </row>
   </sheetData>
